--- a/Excel/Комп.xlsx
+++ b/Excel/Комп.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39A0B2C-3CFE-406C-AF00-D52707F070B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB8B245-7D62-4FED-88BB-9F208B83CAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22620" yWindow="5100" windowWidth="18030" windowHeight="11385" xr2:uid="{A61C73D3-4221-442E-97A2-C7103576B2F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A61C73D3-4221-442E-97A2-C7103576B2F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
     <t>https://market.yandex.ru/product--tverdotelnyi-nakopitel-smartbuy-120-gb-sata-sb120gb-rvvl3-25sat3/138725753?nid=26912750&amp;show-uid=16462977748279040872106015&amp;context=search&amp;sku=138725753</t>
   </si>
   <si>
-    <t>https://market.yandex.ru/product--zhestkii-disk-western-digital-wd-black-500-gb-wd5003azex/8431798?nid=26912810&amp;show-uid=16462977748279040872106013&amp;context=search&amp;sku=8431798</t>
-  </si>
-  <si>
     <t>https://www.avito.ru/sankt-peterburg/tovary_dlya_kompyutera/termopasta_arctic_cooling_mx-4_v_shpritse_4gr_2369711370</t>
+  </si>
+  <si>
+    <t>https://www.avito.ru/sankt-peterburg/tovary_dlya_kompyutera/zhestkiy_disk_1_tb_2357078449</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -190,19 +199,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,157 +547,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E4659D-6D07-4AF7-B94B-D96F9032DD20}">
-  <dimension ref="A1:D13"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45000</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <f>SUM(B:B)</f>
-        <v>111500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+        <v>117300</v>
+      </c>
+      <c r="F2" s="8">
+        <f>D2-B2</f>
+        <v>72300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
-        <v>30000</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="5">
+        <v>38000</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>3900</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>4500</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>5300*2</f>
         <v>10600</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1300</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>1500</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>500</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1800</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>3200</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>7000</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{2F6C68C9-F9E2-4002-B80B-23FBD6BDD38E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E5640630-6339-4DCD-9246-F18305A6B66A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{4EEBEC9D-35A5-44D6-BDBA-59405C42B07A}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{5AEC5143-B226-488A-8F08-62C9F81EA770}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{6821F743-A9A1-4930-AC2F-15BDCA36226A}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{4EE4BA8E-4439-47EC-B402-DBDB5695C15E}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{8203380A-7F44-4930-ADBF-FE4E0C6FB8AF}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{200EFD4E-0A94-4866-9BEA-5E844DC1BB4B}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{86CD07CA-9E6E-4C84-B3B0-C576F5601AF4}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{88854691-34C1-47AF-9DEB-5ACF66270E77}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>